--- a/farmServer/src/main/resources/config/Order.xlsx
+++ b/farmServer/src/main/resources/config/Order.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\农场finaliii\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\Farm配置表\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxNumber</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>OrderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_500|0_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001_1|2002_1|2003_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,35 +389,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/farmServer/src/main/resources/config/Order.xlsx
+++ b/farmServer/src/main/resources/config/Order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\Farm配置表\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>OrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2001_1|2002_1|2003_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_1|2002_1|2002_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_250|0_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔壁老王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002_5|2004_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000|0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_50|0_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003_2|2004_2|1001_10|2001_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -425,13 +481,81 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
